--- a/docs/excel/Peer Assesment UTS-5_Skor.xlsx
+++ b/docs/excel/Peer Assesment UTS-5_Skor.xlsx
@@ -198,9 +198,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="11.0"/>
       <color rgb="FF343A40"/>
-      <name val="&quot;Source Sans Pro&quot;"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
